--- a/charles-university/data-structures-1/hashing/docs/results-assignment-4.xlsx
+++ b/charles-university/data-structures-1/hashing/docs/results-assignment-4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="36170" windowHeight="16620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="36170" windowHeight="16620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Random" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +106,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -195,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -206,6 +212,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7966,10 +7975,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sequential!$A$3:$A$21</c:f>
+              <c:f>Sequential!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -8032,10 +8041,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sequential!$C$3:$C$21</c:f>
+              <c:f>Sequential!$C$3:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>426.35</c:v>
                 </c:pt>
@@ -8131,10 +8140,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sequential!$A$3:$A$21</c:f>
+              <c:f>Sequential!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -8197,10 +8206,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sequential!$F$3:$F$21</c:f>
+              <c:f>Sequential!$F$3:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>71.7</c:v>
                 </c:pt>
@@ -8287,10 +8296,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sequential!$A$3:$A$21</c:f>
+              <c:f>Sequential!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -8353,10 +8362,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sequential!$D$3:$D$21</c:f>
+              <c:f>Sequential!$D$3:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>41.8605626847</c:v>
                 </c:pt>
@@ -8453,10 +8462,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sequential!$A$3:$A$21</c:f>
+              <c:f>Sequential!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -8519,10 +8528,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sequential!$E$3:$E$21</c:f>
+              <c:f>Sequential!$E$3:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>34.049999999999997</c:v>
                 </c:pt>
@@ -8609,10 +8618,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sequential!$A$3:$A$21</c:f>
+              <c:f>Sequential!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -8675,10 +8684,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sequential!$B$3:$B$21</c:f>
+              <c:f>Sequential!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>5.45</c:v>
                 </c:pt>
@@ -8777,10 +8786,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sequential!$A$3:$A$21</c:f>
+              <c:f>Sequential!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -8843,66 +8852,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sequential!$H$3:$H$21</c:f>
+              <c:f>Sequential!$H$3:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>922.5</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1844</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3687.5</c:v>
+                  <c:v>1110</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7055.6951219499997</c:v>
+                  <c:v>1065</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13982.5213415</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7144.6122137399998</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12242.244274799999</c:v>
+                  <c:v>19874</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6024.8637924499999</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3741.7932481399998</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>989.81689872200002</c:v>
+                  <c:v>717</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>455.24299065399998</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>412.872112152</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59.572205135499999</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>144.83575924499999</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48.172341034299997</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.9020264078200002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20.462762763200001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.6249985564499996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.2499999534299997</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8945,10 +8945,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sequential!$A$3:$A$21</c:f>
+              <c:f>Sequential!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -9011,66 +9011,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sequential!$K$3:$K$21</c:f>
+              <c:f>Sequential!$K$3:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>12.75</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.585365853700001</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.756097561000001</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.7597560976</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.414634146299999</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.258015267199999</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.4705343511</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.686913391799999</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.520122067499999</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.4171752813</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.011968338699999</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.7146556040299998</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.5230074148</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.178551844199999</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.6939507188</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.1691932068600002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.650203475200001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.5874988963799996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.0999999813699999</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9111,10 +9102,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sequential!$A$3:$A$21</c:f>
+              <c:f>Sequential!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -9177,66 +9168,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sequential!$I$3:$I$21</c:f>
+              <c:f>Sequential!$I$3:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>8.8630967012799999</c:v>
+                  <c:v>6.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5623697323600005</c:v>
+                  <c:v>6.42243902439</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.6254612834</c:v>
+                  <c:v>9.4924390243900003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.0220203955</c:v>
+                  <c:v>16.954024390200001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.6632411632</c:v>
+                  <c:v>9.5765853658500006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.685724024900001</c:v>
+                  <c:v>10.7604885496</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.7783236801</c:v>
+                  <c:v>34.344206106900003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.893611487399999</c:v>
+                  <c:v>8.35326592903</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.379338388000001</c:v>
+                  <c:v>11.2556074766</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.7464962163899997</c:v>
+                  <c:v>11.1332147625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.7916217648200004</c:v>
+                  <c:v>5.3853013541900001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.9644037340100002</c:v>
+                  <c:v>6.6057435090499999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.3099226356300004</c:v>
+                  <c:v>7.5782849343200001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.2256909360199995</c:v>
+                  <c:v>9.5502234580300005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.7913869384899996</c:v>
+                  <c:v>5.9034575495299997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.6208604389399999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.7704066739900002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.8970574309299999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.8541666783100004</c:v>
+                  <c:v>7.1737879178500004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9280,10 +9262,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sequential!$A$3:$A$21</c:f>
+              <c:f>Sequential!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -9346,66 +9328,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sequential!$J$3:$J$21</c:f>
+              <c:f>Sequential!$J$3:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.70731707317</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7195121951200001</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.70731707317</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6737804878000002</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7526717557299998</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6900763358800002</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6936283861099999</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7325958420799998</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6846271218800002</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.7446595460599998</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.7353193619899998</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.7695086188400002</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.93750447035</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.2070443816600003</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0663995386599998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.9062486495800002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.29778922683</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.5000000931299997</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9449,10 +9422,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sequential!$A$3:$A$21</c:f>
+              <c:f>Sequential!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -9515,10 +9488,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sequential!$G$3:$G$21</c:f>
+              <c:f>Sequential!$G$3:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -9568,13 +9541,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1249998137399999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.3125007683400001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8124999883599999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9601,7 +9574,7 @@
         <c:axId val="700457920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="28"/>
+          <c:max val="25"/>
           <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -9682,13 +9655,14 @@
         <c:crossAx val="700458248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="700458248"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:min val="1"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -11033,13 +11007,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:colOff>28576</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -11453,7 +11427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
@@ -17018,15 +16992,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -17034,7 +17008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -17072,7 +17046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10</v>
       </c>
@@ -17095,23 +17069,23 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>922.5</v>
+        <v>87</v>
       </c>
       <c r="I3">
-        <v>8.8630967012799999</v>
+        <v>6.48</v>
       </c>
       <c r="J3">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>12.75</v>
+        <v>14</v>
       </c>
       <c r="L3">
         <f>POWER(2, Table6[[#This Row],[hash size]])</f>
         <v>1024</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>11</v>
       </c>
@@ -17134,23 +17108,23 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1844</v>
+        <v>98</v>
       </c>
       <c r="I4">
-        <v>9.5623697323600005</v>
+        <v>6.42243902439</v>
       </c>
       <c r="J4">
-        <v>3.70731707317</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>12.585365853700001</v>
+        <v>17</v>
       </c>
       <c r="L4">
         <f>POWER(2, Table6[[#This Row],[hash size]])</f>
         <v>2048</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>12</v>
       </c>
@@ -17173,23 +17147,23 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>3687.5</v>
+        <v>1110</v>
       </c>
       <c r="I5">
-        <v>10.6254612834</v>
+        <v>9.4924390243900003</v>
       </c>
       <c r="J5">
-        <v>3.7195121951200001</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>12.756097561000001</v>
+        <v>14</v>
       </c>
       <c r="L5">
         <f>POWER(2, Table6[[#This Row],[hash size]])</f>
         <v>4096</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>13</v>
       </c>
@@ -17212,23 +17186,23 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>7055.6951219499997</v>
+        <v>1065</v>
       </c>
       <c r="I6">
-        <v>11.0220203955</v>
+        <v>16.954024390200001</v>
       </c>
       <c r="J6">
-        <v>3.70731707317</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>12.7597560976</v>
+        <v>14</v>
       </c>
       <c r="L6">
         <f>POWER(2, Table6[[#This Row],[hash size]])</f>
         <v>8192</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>14</v>
       </c>
@@ -17251,23 +17225,24 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>13982.5213415</v>
+        <v>347</v>
       </c>
       <c r="I7">
-        <v>12.6632411632</v>
+        <v>9.5765853658500006</v>
       </c>
       <c r="J7">
-        <v>3.6737804878000002</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>12.414634146299999</v>
+        <v>12</v>
       </c>
       <c r="L7">
         <f>POWER(2, Table6[[#This Row],[hash size]])</f>
         <v>16384</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>15</v>
       </c>
@@ -17290,23 +17265,24 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>7144.6122137399998</v>
+        <v>689</v>
       </c>
       <c r="I8">
-        <v>11.685724024900001</v>
+        <v>10.7604885496</v>
       </c>
       <c r="J8">
-        <v>3.7526717557299998</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>13.258015267199999</v>
+        <v>12</v>
       </c>
       <c r="L8">
         <f>POWER(2, Table6[[#This Row],[hash size]])</f>
         <v>32768</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>16</v>
       </c>
@@ -17329,23 +17305,24 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>12242.244274799999</v>
+        <v>19874</v>
       </c>
       <c r="I9">
-        <v>15.7783236801</v>
+        <v>34.344206106900003</v>
       </c>
       <c r="J9">
-        <v>3.6900763358800002</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>12.4705343511</v>
+        <v>14</v>
       </c>
       <c r="L9">
         <f>POWER(2, Table6[[#This Row],[hash size]])</f>
         <v>65536</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>17</v>
       </c>
@@ -17368,23 +17345,24 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>6024.8637924499999</v>
+        <v>206</v>
       </c>
       <c r="I10">
-        <v>11.893611487399999</v>
+        <v>8.35326592903</v>
       </c>
       <c r="J10">
-        <v>3.6936283861099999</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>12.686913391799999</v>
+        <v>14</v>
       </c>
       <c r="L10">
         <f>POWER(2, Table6[[#This Row],[hash size]])</f>
         <v>131072</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>18</v>
       </c>
@@ -17407,23 +17385,24 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>3741.7932481399998</v>
+        <v>257</v>
       </c>
       <c r="I11">
-        <v>12.379338388000001</v>
+        <v>11.2556074766</v>
       </c>
       <c r="J11">
-        <v>3.7325958420799998</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>12.520122067499999</v>
+        <v>18</v>
       </c>
       <c r="L11">
         <f>POWER(2, Table6[[#This Row],[hash size]])</f>
         <v>262144</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>19</v>
       </c>
@@ -17446,23 +17425,24 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>989.81689872200002</v>
+        <v>717</v>
       </c>
       <c r="I12">
-        <v>9.7464962163899997</v>
+        <v>11.1332147625</v>
       </c>
       <c r="J12">
-        <v>3.6846271218800002</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>12.4171752813</v>
+        <v>19</v>
       </c>
       <c r="L12">
         <f>POWER(2, Table6[[#This Row],[hash size]])</f>
         <v>524288</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>20</v>
       </c>
@@ -17485,23 +17465,24 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>455.24299065399998</v>
+        <v>72</v>
       </c>
       <c r="I13">
-        <v>9.7916217648200004</v>
+        <v>5.3853013541900001</v>
       </c>
       <c r="J13">
-        <v>3.7446595460599998</v>
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>13.011968338699999</v>
+        <v>11</v>
       </c>
       <c r="L13">
         <f>POWER(2, Table6[[#This Row],[hash size]])</f>
         <v>1048576</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>21</v>
       </c>
@@ -17524,23 +17505,24 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>412.872112152</v>
+        <v>230</v>
       </c>
       <c r="I14">
-        <v>7.9644037340100002</v>
+        <v>6.6057435090499999</v>
       </c>
       <c r="J14">
-        <v>3.7353193619899998</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>9.7146556040299998</v>
+        <v>13</v>
       </c>
       <c r="L14">
         <f>POWER(2, Table6[[#This Row],[hash size]])</f>
         <v>2097152</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>22</v>
       </c>
@@ -17563,23 +17545,24 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>59.572205135499999</v>
+        <v>130</v>
       </c>
       <c r="I15">
-        <v>6.3099226356300004</v>
+        <v>7.5782849343200001</v>
       </c>
       <c r="J15">
-        <v>3.7695086188400002</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>10.5230074148</v>
+        <v>16</v>
       </c>
       <c r="L15">
         <f>POWER(2, Table6[[#This Row],[hash size]])</f>
         <v>4194304</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>23</v>
       </c>
@@ -17602,23 +17585,24 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>144.83575924499999</v>
+        <v>625</v>
       </c>
       <c r="I16">
-        <v>9.2256909360199995</v>
+        <v>9.5502234580300005</v>
       </c>
       <c r="J16">
-        <v>3.93750447035</v>
+        <v>3</v>
       </c>
       <c r="K16">
-        <v>14.178551844199999</v>
+        <v>13</v>
       </c>
       <c r="L16">
         <f>POWER(2, Table6[[#This Row],[hash size]])</f>
         <v>8388608</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>24</v>
       </c>
@@ -17641,23 +17625,24 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>48.172341034299997</v>
+        <v>264</v>
       </c>
       <c r="I17">
-        <v>6.7913869384899996</v>
+        <v>5.9034575495299997</v>
       </c>
       <c r="J17">
-        <v>4.2070443816600003</v>
+        <v>3</v>
       </c>
       <c r="K17">
-        <v>11.6939507188</v>
+        <v>10</v>
       </c>
       <c r="L17">
         <f>POWER(2, Table6[[#This Row],[hash size]])</f>
         <v>16777216</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>25</v>
       </c>
@@ -17680,23 +17665,24 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>7.9020264078200002</v>
+        <v>152</v>
       </c>
       <c r="I18">
-        <v>3.6208604389399999</v>
+        <v>7.1737879178500004</v>
       </c>
       <c r="J18">
-        <v>3.0663995386599998</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>6.1691932068600002</v>
+        <v>15</v>
       </c>
       <c r="L18" s="9">
         <f>POWER(2, Table6[[#This Row],[hash size]])</f>
         <v>33554432</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>26</v>
       </c>
@@ -17716,26 +17702,12 @@
         <v>52.350205412400001</v>
       </c>
       <c r="G19">
-        <v>1.1249998137399999</v>
-      </c>
-      <c r="H19">
-        <v>20.462762763200001</v>
-      </c>
-      <c r="I19">
-        <v>7.7704066739900002</v>
-      </c>
-      <c r="J19">
-        <v>4.9062486495800002</v>
-      </c>
-      <c r="K19">
-        <v>19.650203475200001</v>
-      </c>
-      <c r="L19" s="9">
-        <f>POWER(2, Table6[[#This Row],[hash size]])</f>
-        <v>67108864</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>27</v>
       </c>
@@ -17755,26 +17727,12 @@
         <v>51.129890793100003</v>
       </c>
       <c r="G20">
-        <v>2.3125007683400001</v>
-      </c>
-      <c r="H20">
-        <v>4.6249985564499996</v>
-      </c>
-      <c r="I20">
-        <v>3.8970574309299999</v>
-      </c>
-      <c r="J20">
-        <v>4.29778922683</v>
-      </c>
-      <c r="K20">
-        <v>4.5874988963799996</v>
-      </c>
-      <c r="L20" s="9">
-        <f>POWER(2, Table6[[#This Row],[hash size]])</f>
-        <v>134217728</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>28</v>
       </c>
@@ -17794,30 +17752,32 @@
         <v>51.111543352399998</v>
       </c>
       <c r="G21">
-        <v>3.8124999883599999</v>
-      </c>
-      <c r="H21">
-        <v>7.2499999534299997</v>
-      </c>
-      <c r="I21">
-        <v>5.8541666783100004</v>
-      </c>
-      <c r="J21">
-        <v>6.5000000931299997</v>
-      </c>
-      <c r="K21">
-        <v>7.0999999813699999</v>
-      </c>
-      <c r="L21" s="9">
-        <f>POWER(2, Table6[[#This Row],[hash size]])</f>
-        <v>268435456</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P25" s="10"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P26" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>